--- a/excel/Standard Parts.xlsx
+++ b/excel/Standard Parts.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllParts!$B$2:$C$47</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,6 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -493,7 +494,7 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -504,7 +505,7 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
@@ -516,7 +517,7 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="3"/>
@@ -524,6 +525,7 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -533,7 +535,7 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="I8" s="3"/>
@@ -545,7 +547,7 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="I9" s="3"/>
@@ -557,7 +559,7 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="I10" s="3"/>
@@ -569,7 +571,7 @@
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="I11" s="3"/>
@@ -581,13 +583,14 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -596,7 +599,7 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
     </row>
@@ -607,7 +610,7 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>3</v>
       </c>
     </row>
@@ -618,7 +621,7 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
     </row>
@@ -629,7 +632,7 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
     </row>
@@ -640,7 +643,7 @@
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
     </row>
@@ -651,7 +654,7 @@
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
     </row>
